--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_4681.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_4681.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4681</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Shimron Odilon Hetmeyer</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Wrist Spin (Chinaman)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4100</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4101</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -607,7 +672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4144</t>
+          <t>4144</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -659,7 +724,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4148</t>
+          <t>4148</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -711,7 +776,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4150</t>
+          <t>4150</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -763,7 +828,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4154</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -815,7 +880,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4159</t>
+          <t>4159</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -867,7 +932,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4161</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -919,7 +984,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4164</t>
+          <t>4164</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -971,7 +1036,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4179</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1023,7 +1088,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4180</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1075,7 +1140,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4181</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1127,7 +1192,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4213</t>
+          <t>4213</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1179,7 +1244,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4216</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1231,7 +1296,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4219</t>
+          <t>4219</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1283,7 +1348,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4220</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1335,7 +1400,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4221</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1387,7 +1452,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4228</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1439,7 +1504,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4229</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1491,7 +1556,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4230</t>
+          <t>4230</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1543,7 +1608,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4253</t>
+          <t>4253</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1595,7 +1660,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4254</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1635,7 +1700,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -1643,7 +1707,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4255</t>
+          <t>4255</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1695,7 +1759,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4256</t>
+          <t>4256</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1747,7 +1811,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4260</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1799,7 +1863,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4304</t>
+          <t>4304</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1851,7 +1915,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4312</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1891,7 +1955,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>10/06/2019</t>
@@ -1899,7 +1962,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4317</t>
+          <t>4317</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1951,7 +2014,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2003,7 +2066,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2055,7 +2118,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4333</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2107,7 +2170,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4338</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2159,7 +2222,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4344</t>
+          <t>4344</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2211,7 +2274,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4348</t>
+          <t>4348</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2251,7 +2314,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>08/08/2019</t>
@@ -2259,7 +2321,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4359</t>
+          <t>4359</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2311,7 +2373,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4360</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2363,7 +2425,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4362</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2415,7 +2477,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4377</t>
+          <t>4377</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2467,7 +2529,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2519,7 +2581,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4379</t>
+          <t>4379</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2571,7 +2633,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4385</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2623,7 +2685,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4387</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2675,7 +2737,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4388</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2727,7 +2789,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4391</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2779,7 +2841,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4394</t>
+          <t>4394</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2831,7 +2893,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4483</t>
+          <t>4483</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2883,7 +2945,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4486</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2914,6 +2976,555 @@
       <c r="J48" t="inlineStr">
         <is>
           <t>10</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4317</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4321</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>18.40%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4325</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4333</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4338</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>12.59%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4344</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>9.21%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>12.54%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4360</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8.57%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4362</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.52%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>13.77%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4385</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.43%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4388</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>11.75%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4391</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4.35%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4394</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.48%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>8.94%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_4681.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_4681.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1700,6 +1699,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -1955,6 +1955,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>10/06/2019</t>
@@ -1967,7 +1968,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2314,6 +2315,7 @@
           <t>35</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>08/08/2019</t>
@@ -2976,555 +2978,6 @@
       <c r="J48" t="inlineStr">
         <is>
           <t>10</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4317</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4321</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>18.40%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4325</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4333</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4338</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>12.59%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4344</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>9.21%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4348</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>12.54%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4359</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4360</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>8.57%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4362</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4377</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.52%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4378</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>13.77%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4379</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4385</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4387</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.43%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4388</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>11.75%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4391</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.35%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4394</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.48%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4483</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>8.94%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4486</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
         </is>
       </c>
     </row>
